--- a/reports/corpus_dwi-unigram_bigram_trigram-fold-5.xlsx
+++ b/reports/corpus_dwi-unigram_bigram_trigram-fold-5.xlsx
@@ -587,91 +587,91 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9866666666666667</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5822784810126582</v>
+        <v>0.9240506329113924</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9315068493150684</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7354838709677419</v>
+        <v>0.9741935483870968</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.6619047619047619</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9983050847457627</v>
+        <v>0.9864406779661017</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3819444444444444</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4183673469387755</v>
+        <v>0.8673469387755102</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.45</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8349514563106796</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1216216216216216</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.285</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6079187105816398</v>
+        <v>0.8507358093903293</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3950703220445639</v>
+        <v>0.7891887445598942</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8700581006503808</v>
+        <v>0.8990137877775615</v>
       </c>
     </row>
     <row r="3">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9864864864864865</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -705,43 +705,43 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9869281045751634</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9818181818181818</v>
+        <v>0.9858156028368794</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3479031305375074</v>
+        <v>0.6024844720496895</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.9431818181818182</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9647058823529412</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -750,22 +750,22 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6079187105816398</v>
+        <v>0.8507358093903293</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8089214408097098</v>
+        <v>0.9168753561147691</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6079187105816398</v>
+        <v>0.8507358093903293</v>
       </c>
     </row>
     <row r="4">
@@ -775,91 +775,91 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9932885906040269</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.736</v>
+        <v>0.9542483660130719</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.125</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.8641975308641976</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9645390070921985</v>
+        <v>0.9931034482758621</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8475836431226766</v>
+        <v>0.9805194805194806</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4075471698113207</v>
+        <v>0.7920227920227919</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6333333333333334</v>
+        <v>0.9620253164556963</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="O4" t="n">
-        <v>0.51598773543583</v>
+        <v>0.7480719794344474</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1568627450980392</v>
+        <v>0.53125</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5527638190954773</v>
+        <v>0.7155172413793103</v>
       </c>
       <c r="R4" t="n">
-        <v>0.25</v>
+        <v>0.9268292682926829</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8284023668639052</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5836298932384342</v>
+        <v>0.9189189189189189</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="W4" t="n">
-        <v>0.91005291005291</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2101167315175098</v>
+        <v>0.7526881720430109</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.4401544401544401</v>
+        <v>0.7873563218390804</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5365853658536585</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6079187105816398</v>
+        <v>0.8507358093903293</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4748381151908816</v>
+        <v>0.8271555343353688</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6207333939029668</v>
+        <v>0.8513633385468031</v>
       </c>
     </row>
     <row r="5">
@@ -869,85 +869,85 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I5" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="L5" t="n">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N5" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="O5" t="n">
-        <v>1693</v>
+        <v>966</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="S5" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="T5" t="n">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="U5" t="n">
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="W5" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="Z5" t="n">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6079187105816398</v>
+        <v>0.8507358093903293</v>
       </c>
       <c r="AC5" t="n">
         <v>2854</v>

--- a/reports/corpus_dwi-unigram_bigram_trigram-fold-5.xlsx
+++ b/reports/corpus_dwi-unigram_bigram_trigram-fold-5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,50 +531,45 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>RBS</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UH</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>UH</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>VBI</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>VBT</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>WP</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -641,37 +636,34 @@
         <v>0.9696969696969697</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8673469387755102</v>
+        <v>0.8724489795918368</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="W2" t="n">
-        <v>0.970873786407767</v>
+        <v>0.8</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6306306306306306</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8510861948142957</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8507358093903293</v>
+        <v>0.820960375974943</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7891887445598942</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.8990137877775615</v>
+        <v>0.8996305376309716</v>
       </c>
     </row>
     <row r="3">
@@ -735,37 +727,34 @@
         <v>0.9896907216494846</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9770114942528736</v>
+        <v>0.9771428571428571</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9833333333333333</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9256756756756757</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0.8510861948142957</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8507358093903293</v>
+        <v>0.9535556248749593</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9168753561147691</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.8507358093903293</v>
+        <v>0.8510861948142957</v>
       </c>
     </row>
     <row r="4">
@@ -829,37 +818,34 @@
         <v>0.9795918367346939</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9189189189189189</v>
+        <v>0.9218328840970351</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9852216748768473</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="X4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.7526881720430109</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7526881720430109</v>
+        <v>0.7873563218390804</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7873563218390804</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.8510861948142957</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8507358093903293</v>
+        <v>0.8603583143159083</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8271555343353688</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.8513633385468031</v>
+        <v>0.8518639912535619</v>
       </c>
     </row>
     <row r="5">
@@ -923,36 +909,33 @@
         <v>97</v>
       </c>
       <c r="T5" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="V5" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="W5" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="Y5" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z5" t="n">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>28</v>
+        <v>0.8510861948142957</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8507358093903293</v>
+        <v>2854</v>
       </c>
       <c r="AC5" t="n">
-        <v>2854</v>
-      </c>
-      <c r="AD5" t="n">
         <v>2854</v>
       </c>
     </row>
